--- a/wcsa4seleniumproject/data/TestData.xlsx
+++ b/wcsa4seleniumproject/data/TestData.xlsx
@@ -127,8 +127,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
